--- a/INDIVIDUAL_ARGUMENTS/plasticb_notbad.xlsx
+++ b/INDIVIDUAL_ARGUMENTS/plasticb_notbad.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="173" firstSheet="0" activeTab="0"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-  </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
   <si>
     <t>#id</t>
   </si>
@@ -29,166 +28,250 @@
     <t>Bottled water consumption has grown exponentially over the past ten to fifteen years. This growth has taken place globally, but particularly in Europe and North America. The bottled water industry has literally created its own water culture which is good for american industries.</t>
   </si>
   <si>
+    <t>279,0.67,19.74,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.06,0.0</t>
+  </si>
+  <si>
     <t>arg219237</t>
   </si>
   <si>
     <t>jesus loves plastic water bottles, and you cant argue with that logic</t>
   </si>
   <si>
+    <t>69,0.0,15.05,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg219206</t>
   </si>
   <si>
     <t>Americans spend billions on bottled water every year. Banning their sale would greatly hurt an already struggling economy. In addition to the actual sale of water bottles, the plastics that they are made out of, and the advertising on both the bottles and packaging are also big business. In addition to this, compostable waters bottle are also coming onto the market, these can be used instead of plastics to eliminate that detriment. Moreover, bottled water not only has a cleaner safety record than municipal water, but it easier to trace when a potential health risk does occur.  (http://www.friendsjournal.org/bottled-water) (http://www.cdc.gov/healthywater/drinking/bottled/)</t>
   </si>
   <si>
+    <t>681,0.67,17.29,0.0,0.01,1.5,0.0,0.0,0.0,0.3,0.45,0.4,0.06,0.25</t>
+  </si>
+  <si>
     <t>arg219203</t>
   </si>
   <si>
     <t>The American Water companies are Aquafina (PEPSI), Dasani (Coca Cola), Perrier (Nestle) which provide jobs for the american citizens,</t>
   </si>
   <si>
+    <t>133,0.0,21.02,0.0,0.21,0.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25</t>
+  </si>
+  <si>
     <t>arg219225</t>
   </si>
   <si>
     <t>Banning plastic bottled water would be a huge mistake in this very moment. More than a million people in the United States purchase bottled water every day which is helping the economy com out of this recession we are in. maybe not in a big way but every kid of help counts! Bottled water also only makes less then 1&amp;#xof; the worlds wastes and can be recycled! According to the National Association for PET Container resources, PET water bottles are no the most recycled container in curb side programs by weight and by number!  http://www.nestlewaterscorporate.com/bottled_water_things_to_know/Video/index.html?@videoList.featured=31101711001</t>
   </si>
   <si>
+    <t>644,0.29,15.03,0.0,0.02,1.43,0.0,0.02,0.0,0.4,0.5,0.55,0.06,0.0</t>
+  </si>
+  <si>
     <t>arg219284</t>
   </si>
   <si>
     <t>God created water bottles for a reason. Because its good.</t>
   </si>
   <si>
+    <t>57,0.5,10.62,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg219216</t>
   </si>
   <si>
     <t>The water bottles are a safe source of water and is garentee safety</t>
   </si>
   <si>
+    <t>67,0.0,12.23,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg219294</t>
   </si>
   <si>
     <t>If bottled water did not exist, more people would be drinking sweetened liquids becasue it would be the only portable drinks! People would become fat!</t>
   </si>
   <si>
+    <t>150,0.0,16.41,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.06,0.25</t>
+  </si>
+  <si>
     <t>arg219244</t>
   </si>
   <si>
     <t>Western Europe consumes almost 50% of the world's bottled water. Many claim that this is due to European culture, since the continent has had very polluted waters due to agriculture and industry dating back to the Industrial Revolution. The water bottles they buy help us.</t>
   </si>
   <si>
+    <t>272,0.0,17.19,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg219291</t>
   </si>
   <si>
     <t>craig is a hypocryte with bottled water and should not be taken seriously</t>
   </si>
   <si>
+    <t>73,0.0,14.94,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg219258</t>
   </si>
   <si>
     <t>Banning bottled water would hurt the economy because it would leave hundreds of people without jobs and the big corporations like Dasani and Nestle would loose millions of dollars. It would hurt the economy severely. Millions of Americans use and purchase water bottle everyday so, banning them would only hurt big corporations.  http://www.nestlewaterscorporate.com/bottled_water_things_to_know/</t>
   </si>
   <si>
+    <t>396,0.25,19.13,0.0,0.02,1.25,0.0,0.0,0.0,0.25,0.45,0.45,0.06,0.25</t>
+  </si>
+  <si>
     <t>arg219198</t>
   </si>
   <si>
     <t>why would we ban a product that more than a million people buy when we are in the middle of a recession?</t>
   </si>
   <si>
+    <t>104,0.0,10.38,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg219276</t>
   </si>
   <si>
     <t>When the most interesting man on the world is not drinking Dos Equis, hes drinking bottled water.</t>
   </si>
   <si>
+    <t>97,0.0,15.32,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg219200</t>
   </si>
   <si>
     <t>can be recycled to make other things. like more water bottles. it also makes the water companys rich. theyre not expensive, its like 3 bucks for one of those big packs at shaws. that will keep you un-thirsty for a couple weeks for pocket change.</t>
   </si>
   <si>
+    <t>245,0.2,11.66,0.0,0.09,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg219242</t>
   </si>
   <si>
     <t>We will be able to ban water bottles until we get out of this recession!</t>
   </si>
   <si>
+    <t>72,0.0,10.06,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg219226</t>
   </si>
   <si>
     <t>AS long as people recycle the evironment, the water bottles are thrown and poluted. Its not the water companies fault.</t>
   </si>
   <si>
+    <t>118,0.0,15.05,0.0,0.1,1.0,0.0,0.05,0.0,0.2,0.25,0.25,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg219293</t>
   </si>
   <si>
     <t>Most Americans on average recycle 86-88% of there bottle waters. That is more than half! So stop complaining that we dont recycle because we do!  http://www.treehugger.com/culture/23-percent-of-americans-donatmt-recycle.html</t>
   </si>
   <si>
+    <t>224,0.25,13.33,0.0,0.04,1.5,0.0,0.04,0.0,0.15,0.2,0.2,0.06,0.0</t>
+  </si>
+  <si>
     <t>arg219245</t>
   </si>
   <si>
     <t>U.S. alone grew by over 13%. According to research and consulting done by the Beverage Marketing Corporation, the global bottled water industry has exploded to over $35 billion. Americans alone paid $7.7 billion for bottled water in 2002. In 2001, for example globally bottled water companies produced over 130,000 million liters of water. This produced roughly 35,000 million dollars in revenue for the world's thousands of bottled water companies in 2001.</t>
   </si>
   <si>
+    <t>457,0.0,20.22,0.0,0.01,1.6,0.0,0.13,0.0,0.25,0.35,0.35,0.06,0.0</t>
+  </si>
+  <si>
     <t>arg219259</t>
   </si>
   <si>
     <t>Bottled water is somewhat less likely to be found in developing countries, where public water is least safe to drink. Many government programs regularly disperse bottled water for various reasons. Distributing small bottles of water is much easier than distributing large bulk storages of water. Also contamination from large water storage containers is much more likely than from single 12-20 ounce bottles of water.</t>
   </si>
   <si>
+    <t>417,0.25,20.21,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.13,0.0</t>
+  </si>
+  <si>
     <t>arg219201</t>
   </si>
   <si>
     <t>bottled water is not bad for the world because after youre done drinking your bottle of water you can re-use it several times to have serval bottles of water using less plastic. plastic is also recyclable and can make new objects such as more plastic bottles so technically you can re-use and re-use the same plastic bottle over and over again. it will not be bad for the economy if we figure out how to reuse properly.</t>
   </si>
   <si>
+    <t>419,0.67,14.39,0.0,0.03,1.0,0.0,0.0,0.0,0.35,0.3,0.35,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg219250</t>
   </si>
   <si>
     <t>it is true that bottled water is a waste, but bottles can be reused!</t>
   </si>
   <si>
+    <t>68,1.0,9.81,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg219209</t>
   </si>
   <si>
     <t>there aint no sunshine without plastic water bottles. only darkness everyday.</t>
   </si>
   <si>
+    <t>77,0.0,18.91,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg219268</t>
   </si>
   <si>
     <t>Plastic is good light weight and a good for ditrabutions.</t>
   </si>
   <si>
+    <t>57,0.0,14.17,0.0,0.1,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg219298</t>
   </si>
   <si>
     <t>In 2006, the Alliance for a Healthier Generation and the American Beverage Association worked together to develop a set of National School Beverage Guidelines. This was prepared to reduce the calories delivered to schools by beverage companies and in return promote healthier school choices for children. The articles illustrate the program and significant results thus far. Since its inception there has been a 58% cut in total calories contained in all beverages shipped to schools. Further, a survey was taken of parents, pediatricians and family physicians. The highest supported choice for each group was bottled water. (http://www.nikawater.org/bottled-water/ )</t>
   </si>
   <si>
+    <t>667,0.14,20.22,0.0,0.01,1.14,0.0,0.02,0.0,0.3,0.3,0.35,0.19,0.0</t>
+  </si>
+  <si>
     <t>arg219266</t>
   </si>
   <si>
     <t>At Poland Spring, we know that freshness and consistency go hand in hand. Our rigorous quality control standards help us make sure that you will enjoy the same crisp, delicious water every time you take a sip.  To maintain the purity of our water, we employ a comprehensive, multi-barrier filtration system that involves carefully controlled and continuously monitored disinfection processes in hygienically designed lines. We test our water when it comes into the plant and for consistency several times per hour at every stage of the bottling process. Every year, we screen for over 200 possible contaminants-far more than state and federal regulations require."-nuff said  http://delivery.polandspring.com/Delivery/home/help/OurWater.aspx</t>
   </si>
   <si>
+    <t>741,0.0,18.31,0.0,0.03,1.33,0.0,0.01,0.0,0.05,0.1,0.1,0.25,0.25</t>
+  </si>
+  <si>
     <t>arg219264</t>
   </si>
   <si>
     <t>Bottled water is not our biggest problem when it comes to drinking habits. All other beverages consume huge amounts of water and energy during their production processes, which makes their ecological impact far more detrimental than that of bottled water." http://www.democraticunderground.com/discuss/duboard.php?az=view_all&amp;address;=103x347180</t>
   </si>
   <si>
+    <t>345,0.0,19.76,0.0,0.0,2.0,0.0,0.0,0.0,0.05,0.25,0.2,0.06,0.25</t>
+  </si>
+  <si>
     <t>arg219223</t>
   </si>
   <si>
     <t>plastic water bottles all day every day guys, without those we could comfortabley walk around the block with a safe suply of water in our hands</t>
   </si>
   <si>
+    <t>143,0.0,15.17,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.2,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg219289</t>
   </si>
   <si>
     <t>I don't know about you guys but water bottles are so convenient to me. What happens when I'm at the beach on a hot summers day and I'm getting all dehydrated and my only option for water is the ocean that I wouldn't drink from..I have two options, pass out from the heat and lack of water and waste the rest of my day sick/in the hospital..or drink out of a WATER BOTTLEE</t>
+  </si>
+  <si>
+    <t>371,0.5,11.07,0.0,0.05,2.5,0.0,0.03,0.0,0.15,0.15,0.15,0.0,0.0</t>
   </si>
 </sst>
 </file>
@@ -196,48 +279,52 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
   <fonts count="5">
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="00000000"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="FF0000FF"/>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -245,320 +332,667 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="5">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="1"/>
+    <cellStyle builtinId="5" name="Percent" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="3" name="Comma" xfId="4"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B5" activeCellId="0" pane="topLeft" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.90816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="131.897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col customWidth="1" max="1" min="1" style="2" width="9.90816326530612"/>
+    <col customWidth="1" max="2" min="2" style="2" width="131.897959183673"/>
+    <col customWidth="1" max="1025" min="3" style="2" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row customHeight="1" s="4" r="1" ht="12.8" spans="1:3">
+      <c s="2" r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c s="2" r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row customHeight="1" s="4" r="2" ht="12.8" spans="1:3">
+      <c s="2" r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c s="2" r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+    </row>
+    <row customHeight="1" s="4" r="3" ht="12.8" spans="1:3">
+      <c s="2" r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c s="2" r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row customHeight="1" s="4" r="4" ht="12.8" spans="1:3">
+      <c s="2" r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c s="2" r="B4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
+    </row>
+    <row customHeight="1" s="4" r="5" ht="12.8" spans="1:3">
+      <c s="2" r="A5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c s="2" r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row customHeight="1" s="4" r="6" ht="12.8" spans="1:3">
+      <c s="2" r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c s="2" r="B6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="0" t="s">
+    </row>
+    <row customHeight="1" s="4" r="7" ht="12.8" spans="1:3">
+      <c s="2" r="A7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c s="2" r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row customHeight="1" s="4" r="8" ht="12.8" spans="1:3">
+      <c s="2" r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c s="2" r="B8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="0" t="s">
+    </row>
+    <row customHeight="1" s="4" r="9" ht="12.8" spans="1:3">
+      <c s="2" r="A9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c s="2" r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="C9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row customHeight="1" s="4" r="10" ht="12.8" spans="1:3">
+      <c s="2" r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c s="2" r="B10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="0" t="s">
+    </row>
+    <row customHeight="1" s="4" r="11" ht="12.8" spans="1:3">
+      <c s="2" r="A11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c s="2" r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="C11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row customHeight="1" s="4" r="12" ht="12.8" spans="1:3">
+      <c s="2" r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c s="2" r="B12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="0" t="s">
+    </row>
+    <row customHeight="1" s="4" r="13" ht="12.8" spans="1:3">
+      <c s="2" r="A13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c s="2" r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="C13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row customHeight="1" s="4" r="14" ht="12.8" spans="1:3">
+      <c s="2" r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c s="2" r="B14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="0" t="s">
+    </row>
+    <row customHeight="1" s="4" r="15" ht="12.8" spans="1:3">
+      <c s="2" r="A15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c s="2" r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="C15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row customHeight="1" s="4" r="16" ht="12.8" spans="1:3">
+      <c s="2" r="A16" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c s="2" r="B16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="0" t="s">
+    </row>
+    <row customHeight="1" s="4" r="17" ht="12.8" spans="1:3">
+      <c s="2" r="A17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c s="2" r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+    <row customHeight="1" s="4" r="18" ht="12.8" spans="1:3">
+      <c s="2" r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c s="2" r="B18" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+      <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="3" t="s">
+    </row>
+    <row customHeight="1" s="4" r="19" ht="12.8" spans="1:3">
+      <c s="2" r="A19" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
+      <c s="2" r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
+    <row customHeight="1" s="4" r="20" ht="12.8" spans="1:3">
+      <c s="2" r="A20" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c s="2" r="B20" t="s">
         <v>57</v>
       </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row customHeight="1" s="4" r="21" ht="12.8" spans="1:3">
+      <c s="2" r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c s="2" r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row customHeight="1" s="4" r="22" ht="12.8" spans="1:3">
+      <c s="2" r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c s="2" r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row customHeight="1" s="4" r="23" ht="12.8" spans="1:3">
+      <c s="2" r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c s="2" r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row customHeight="1" s="4" r="24" ht="12.8" spans="1:3">
+      <c s="2" r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c s="2" r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row customHeight="1" s="4" r="25" ht="34.3" spans="1:3">
+      <c s="2" r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c s="1" r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row customHeight="1" s="4" r="26" ht="12.8" spans="1:3">
+      <c s="2" r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c s="2" r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row customHeight="1" s="4" r="27" ht="12.8" spans="1:3">
+      <c s="2" r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c s="3" r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row customHeight="1" s="4" r="28" ht="12.8" spans="1:3">
+      <c s="2" r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c s="2" r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row customHeight="1" s="4" r="29" ht="12.8" spans="1:3">
+      <c s="2" r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c s="2" r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B27" r:id="rId1" display="Bottled water is not our biggest problem when it comes to drinking habits. All other beverages consume huge amounts of water and energy during their production processes, which makes their ecological impact far more detrimental than that of bottled water.&quot; http://www.democraticunderground.com/discuss/duboard.php?az=view_all&amp;address;=103x347180"/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" usePrinterDefaults="0" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INDIVIDUAL_ARGUMENTS/plasticb_notbad.xlsx
+++ b/INDIVIDUAL_ARGUMENTS/plasticb_notbad.xlsx
@@ -28,7 +28,7 @@
     <t>Bottled water consumption has grown exponentially over the past ten to fifteen years. This growth has taken place globally, but particularly in Europe and North America. The bottled water industry has literally created its own water culture which is good for american industries.</t>
   </si>
   <si>
-    <t>279,0.67,19.74,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.06,0.0</t>
+    <t>14.33,6.49,1.07,1.21,0.88,0.67,19.74,0.0,0.0,1.0,0,0,0.0,0.0,2.7,0.23,0.14,0.19,0.07,0.07,0.02,0.07,0.1,0.0,0.0,6.24</t>
   </si>
   <si>
     <t>arg219237</t>
@@ -37,7 +37,7 @@
     <t>jesus loves plastic water bottles, and you cant argue with that logic</t>
   </si>
   <si>
-    <t>69,0.0,15.05,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>12.0,5.75,0.3,0.4,0.74,0.0,15.05,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.33,0.17,0.17,0.0,0.0,0.08,0.0,0.0,0.0,0.0,16.71</t>
   </si>
   <si>
     <t>arg219206</t>
@@ -46,7 +46,7 @@
     <t>Americans spend billions on bottled water every year. Banning their sale would greatly hurt an already struggling economy. In addition to the actual sale of water bottles, the plastics that they are made out of, and the advertising on both the bottles and packaging are also big business. In addition to this, compostable waters bottle are also coming onto the market, these can be used instead of plastics to eliminate that detriment. Moreover, bottled water not only has a cleaner safety record than municipal water, but it easier to trace when a potential health risk does occur.  (http://www.friendsjournal.org/bottled-water) (http://www.cdc.gov/healthywater/drinking/bottled/)</t>
   </si>
   <si>
-    <t>681,0.67,17.29,0.0,0.01,1.5,0.0,0.0,0.0,0.3,0.45,0.4,0.06,0.25</t>
+    <t>16.5,6.88,2.45,2.42,1.01,0.67,17.29,0.0,0.01,1.5,0,0,0.0,0.0,0.0,0.28,0.1,0.19,0.07,0.07,0.03,0.02,0.0,0.25,0.25,4.62</t>
   </si>
   <si>
     <t>arg219203</t>
@@ -55,7 +55,7 @@
     <t>The American Water companies are Aquafina (PEPSI), Dasani (Coca Cola), Perrier (Nestle) which provide jobs for the american citizens,</t>
   </si>
   <si>
-    <t>133,0.0,21.02,0.0,0.21,0.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25</t>
+    <t>19.0,7.0,0.47,0.4,1.17,0.0,21.02,0.0,0.21,0.0,0,0,0.0,0.05,8.11,0.47,0.11,0.11,0.0,0.0,0.0,0.0,0.0,0.25,0.25,5.46</t>
   </si>
   <si>
     <t>arg219225</t>
@@ -64,7 +64,7 @@
     <t>Banning plastic bottled water would be a huge mistake in this very moment. More than a million people in the United States purchase bottled water every day which is helping the economy com out of this recession we are in. maybe not in a big way but every kid of help counts! Bottled water also only makes less then 1&amp;#xof; the worlds wastes and can be recycled! According to the National Association for PET Container resources, PET water bottles are no the most recycled container in curb side programs by weight and by number!  http://www.nestlewaterscorporate.com/bottled_water_things_to_know/Video/index.html?@videoList.featured=31101711001</t>
   </si>
   <si>
-    <t>644,0.29,15.03,0.0,0.02,1.43,0.0,0.02,0.0,0.4,0.5,0.55,0.06,0.0</t>
+    <t>13.57,6.78,2.35,2.82,0.83,0.29,15.03,0.0,0.02,1.43,12,0,0.0,0.02,4.05,0.27,0.09,0.14,0.07,0.07,0.01,0.01,0.0,0.0,0.0,5.82</t>
   </si>
   <si>
     <t>arg219284</t>
@@ -73,7 +73,7 @@
     <t>God created water bottles for a reason. Because its good.</t>
   </si>
   <si>
-    <t>57,0.5,10.62,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>5.0,5.7,0.25,0.81,0.31,0.5,10.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.4,0.0,0.1,0.0,0.0,0.1,0.0,0.0,0.0,0.0,18.67</t>
   </si>
   <si>
     <t>arg219216</t>
@@ -82,7 +82,7 @@
     <t>The water bottles are a safe source of water and is garentee safety</t>
   </si>
   <si>
-    <t>67,0.0,12.23,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0</t>
+    <t>13.0,5.15,0.32,0.4,0.8,0.0,12.23,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.46,0.15,0.15,0.0,0.0,0.0,0.0,0.0,0.0,0.0,18.17</t>
   </si>
   <si>
     <t>arg219294</t>
@@ -91,7 +91,7 @@
     <t>If bottled water did not exist, more people would be drinking sweetened liquids becasue it would be the only portable drinks! People would become fat!</t>
   </si>
   <si>
-    <t>150,0.0,16.41,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.06,0.25</t>
+    <t>12.5,6.0,0.62,0.81,0.77,0.0,16.41,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.24,0.16,0.28,0.04,0.04,0.04,0.0,0.0,0.25,0.25,12.1</t>
   </si>
   <si>
     <t>arg219244</t>
@@ -100,7 +100,7 @@
     <t>Western Europe consumes almost 50% of the world's bottled water. Many claim that this is due to European culture, since the continent has had very polluted waters due to agriculture and industry dating back to the Industrial Revolution. The water bottles they buy help us.</t>
   </si>
   <si>
-    <t>272,0.0,17.19,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.15,0.15,0.0,0.0</t>
+    <t>15.0,6.04,1.11,1.21,0.92,0.0,17.19,0.0,0.0,1.0,2,1,0.0,0.02,2.7,0.27,0.11,0.24,0.09,0.09,0.02,0.07,0.14,0.0,0.0,6.89</t>
   </si>
   <si>
     <t>arg219291</t>
@@ -109,7 +109,7 @@
     <t>craig is a hypocryte with bottled water and should not be taken seriously</t>
   </si>
   <si>
-    <t>73,0.0,14.94,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+    <t>13.0,5.62,0.32,0.4,0.8,0.0,14.94,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.23,0.08,0.23,0.15,0.15,0.0,0.0,0.0,0.0,0.0,25.75</t>
   </si>
   <si>
     <t>arg219258</t>
@@ -118,7 +118,7 @@
     <t>Banning bottled water would hurt the economy because it would leave hundreds of people without jobs and the big corporations like Dasani and Nestle would loose millions of dollars. It would hurt the economy severely. Millions of Americans use and purchase water bottle everyday so, banning them would only hurt big corporations.  http://www.nestlewaterscorporate.com/bottled_water_things_to_know/</t>
   </si>
   <si>
-    <t>396,0.25,19.13,0.0,0.02,1.25,0.0,0.0,0.0,0.25,0.45,0.45,0.06,0.25</t>
+    <t>13.25,7.47,1.31,1.61,0.81,0.25,19.13,0.0,0.02,1.25,0,0,0.0,0.0,2.7,0.28,0.09,0.13,0.02,0.02,0.06,0.02,0.0,0.25,0.25,7.6</t>
   </si>
   <si>
     <t>arg219198</t>
@@ -127,7 +127,7 @@
     <t>why would we ban a product that more than a million people buy when we are in the middle of a recession?</t>
   </si>
   <si>
-    <t>104,0.0,10.38,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.0,0.0</t>
+    <t>22.0,4.73,0.54,0.4,1.35,0.0,10.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.14,0.0,0.0,0.09,0.0,0.0,0.0,0.0,3.57</t>
   </si>
   <si>
     <t>arg219276</t>
@@ -136,7 +136,7 @@
     <t>When the most interesting man on the world is not drinking Dos Equis, hes drinking bottled water.</t>
   </si>
   <si>
-    <t>97,0.0,15.32,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
+    <t>17.0,5.71,0.42,0.4,1.04,0.0,15.32,0.0,0.12,1.0,0,0,0.0,0.0,1.35,0.35,0.06,0.29,0.12,0.12,0.0,0.06,0.0,0.0,0.0,14.5</t>
   </si>
   <si>
     <t>arg219200</t>
@@ -145,7 +145,7 @@
     <t>can be recycled to make other things. like more water bottles. it also makes the water companys rich. theyre not expensive, its like 3 bucks for one of those big packs at shaws. that will keep you un-thirsty for a couple weeks for pocket change.</t>
   </si>
   <si>
-    <t>245,0.2,11.66,0.0,0.09,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.0,0.0</t>
+    <t>9.0,5.44,1.11,2.01,0.55,0.2,11.66,0.0,0.09,1.0,1,0,0.0,0.0,0.0,0.24,0.11,0.13,0.04,0.04,0.07,0.0,0.0,0.0,0.0,7.82</t>
   </si>
   <si>
     <t>arg219242</t>
@@ -154,7 +154,7 @@
     <t>We will be able to ban water bottles until we get out of this recession!</t>
   </si>
   <si>
-    <t>72,0.0,10.06,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.0,0.0</t>
+    <t>15.0,4.8,0.37,0.4,0.92,0.0,10.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,28.0</t>
   </si>
   <si>
     <t>arg219226</t>
@@ -163,7 +163,7 @@
     <t>AS long as people recycle the evironment, the water bottles are thrown and poluted. Its not the water companies fault.</t>
   </si>
   <si>
-    <t>118,0.0,15.05,0.0,0.1,1.0,0.0,0.05,0.0,0.2,0.25,0.25,0.0,0.0</t>
+    <t>10.0,5.9,0.5,0.81,0.61,0.0,15.05,0.0,0.1,1.0,0,0,0.0,0.05,0.0,0.25,0.0,0.25,0.15,0.15,0.05,0.0,0.0,0.0,0.0,12.4</t>
   </si>
   <si>
     <t>arg219293</t>
@@ -172,7 +172,7 @@
     <t>Most Americans on average recycle 86-88% of there bottle waters. That is more than half! So stop complaining that we dont recycle because we do!  http://www.treehugger.com/culture/23-percent-of-americans-donatmt-recycle.html</t>
   </si>
   <si>
-    <t>224,0.25,13.33,0.0,0.04,1.5,0.0,0.04,0.0,0.15,0.2,0.2,0.06,0.0</t>
+    <t>6.5,8.62,0.64,1.61,0.4,0.25,13.33,0.0,0.04,1.5,6,1,0.0,0.04,0.0,0.19,0.23,0.15,0.04,0.04,0.08,0.04,0.0,0.0,0.0,14.13</t>
   </si>
   <si>
     <t>arg219245</t>
@@ -181,7 +181,7 @@
     <t>U.S. alone grew by over 13%. According to research and consulting done by the Beverage Marketing Corporation, the global bottled water industry has exploded to over $35 billion. Americans alone paid $7.7 billion for bottled water in 2002. In 2001, for example globally bottled water companies produced over 130,000 million liters of water. This produced roughly 35,000 million dollars in revenue for the world's thousands of bottled water companies in 2001.</t>
   </si>
   <si>
-    <t>457,0.0,20.22,0.0,0.01,1.6,0.0,0.13,0.0,0.25,0.35,0.35,0.06,0.0</t>
+    <t>14.2,6.44,1.76,2.01,0.87,0.0,20.22,0.0,0.01,1.6,29,1,0.0,0.13,1.35,0.25,0.1,0.14,0.06,0.06,0.0,0.03,0.0,0.0,0.0,6.48</t>
   </si>
   <si>
     <t>arg219259</t>
@@ -190,7 +190,7 @@
     <t>Bottled water is somewhat less likely to be found in developing countries, where public water is least safe to drink. Many government programs regularly disperse bottled water for various reasons. Distributing small bottles of water is much easier than distributing large bulk storages of water. Also contamination from large water storage containers is much more likely than from single 12-20 ounce bottles of water.</t>
   </si>
   <si>
-    <t>417,0.25,20.21,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.13,0.0</t>
+    <t>16.0,6.52,1.59,1.61,0.98,0.25,20.21,0.0,0.0,1.0,4,0,0.0,0.02,0.0,0.3,0.23,0.16,0.13,0.13,0.0,0.08,0.1,0.0,0.0,6.13</t>
   </si>
   <si>
     <t>arg219201</t>
@@ -199,7 +199,7 @@
     <t>bottled water is not bad for the world because after youre done drinking your bottle of water you can re-use it several times to have serval bottles of water using less plastic. plastic is also recyclable and can make new objects such as more plastic bottles so technically you can re-use and re-use the same plastic bottle over and over again. it will not be bad for the economy if we figure out how to reuse properly.</t>
   </si>
   <si>
-    <t>419,0.67,14.39,0.0,0.03,1.0,0.0,0.0,0.0,0.35,0.3,0.35,0.0,0.0</t>
+    <t>25.67,5.44,1.91,1.21,1.58,0.67,14.39,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.21,0.16,0.17,0.08,0.08,0.08,0.03,0.1,0.0,0.0,9.53</t>
   </si>
   <si>
     <t>arg219250</t>
@@ -208,7 +208,7 @@
     <t>it is true that bottled water is a waste, but bottles can be reused!</t>
   </si>
   <si>
-    <t>68,1.0,9.81,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.15,0.0,0.0</t>
+    <t>14.0,4.86,0.35,0.4,0.86,1.0,9.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.21,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,21.2</t>
   </si>
   <si>
     <t>arg219209</t>
@@ -217,7 +217,7 @@
     <t>there aint no sunshine without plastic water bottles. only darkness everyday.</t>
   </si>
   <si>
-    <t>77,0.0,18.91,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
+    <t>5.5,7.0,0.27,0.81,0.34,0.0,18.91,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.27,0.18,0.09,0.09,0.09,0.0,0.0,0.0,0.0,0.0,19.5</t>
   </si>
   <si>
     <t>arg219268</t>
@@ -226,7 +226,7 @@
     <t>Plastic is good light weight and a good for ditrabutions.</t>
   </si>
   <si>
-    <t>57,0.0,14.17,0.0,0.1,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0</t>
+    <t>10.0,5.7,0.25,0.4,0.61,0.0,14.17,0.0,0.1,1.0,0,0,0.0,0.0,0.0,0.2,0.2,0.1,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.6</t>
   </si>
   <si>
     <t>arg219298</t>
@@ -235,7 +235,7 @@
     <t>In 2006, the Alliance for a Healthier Generation and the American Beverage Association worked together to develop a set of National School Beverage Guidelines. This was prepared to reduce the calories delivered to schools by beverage companies and in return promote healthier school choices for children. The articles illustrate the program and significant results thus far. Since its inception there has been a 58% cut in total calories contained in all beverages shipped to schools. Further, a survey was taken of parents, pediatricians and family physicians. The highest supported choice for each group was bottled water. (http://www.nikawater.org/bottled-water/ )</t>
   </si>
   <si>
-    <t>667,0.14,20.22,0.0,0.01,1.14,0.0,0.02,0.0,0.3,0.3,0.35,0.19,0.0</t>
+    <t>14.0,6.81,2.43,2.82,0.86,0.14,20.22,0.0,0.01,1.14,6,1,0.0,0.02,2.7,0.3,0.06,0.17,0.03,0.03,0.01,0.06,0.14,0.0,0.0,3.74</t>
   </si>
   <si>
     <t>arg219266</t>
@@ -244,7 +244,7 @@
     <t>At Poland Spring, we know that freshness and consistency go hand in hand. Our rigorous quality control standards help us make sure that you will enjoy the same crisp, delicious water every time you take a sip.  To maintain the purity of our water, we employ a comprehensive, multi-barrier filtration system that involves carefully controlled and continuously monitored disinfection processes in hygienically designed lines. We test our water when it comes into the plant and for consistency several times per hour at every stage of the bottling process. Every year, we screen for over 200 possible contaminants-far more than state and federal regulations require."-nuff said  http://delivery.polandspring.com/Delivery/home/help/OurWater.aspx</t>
   </si>
   <si>
-    <t>741,0.0,18.31,0.0,0.03,1.33,0.0,0.01,0.0,0.05,0.1,0.1,0.25,0.25</t>
+    <t>17.67,6.99,2.63,2.42,1.09,0.0,18.31,0.0,0.03,1.33,3,0,0.0,0.01,1.35,0.29,0.08,0.15,0.04,0.04,0.1,0.08,0.29,0.25,0.25,3.36</t>
   </si>
   <si>
     <t>arg219264</t>
@@ -253,7 +253,7 @@
     <t>Bottled water is not our biggest problem when it comes to drinking habits. All other beverages consume huge amounts of water and energy during their production processes, which makes their ecological impact far more detrimental than that of bottled water." http://www.democraticunderground.com/discuss/duboard.php?az=view_all&amp;address;=103x347180</t>
   </si>
   <si>
-    <t>345,0.0,19.76,0.0,0.0,2.0,0.0,0.0,0.0,0.05,0.25,0.2,0.06,0.25</t>
+    <t>13.67,8.41,1.02,1.21,0.84,0.0,19.76,0.0,0.0,2.0,9,0,0.0,0.0,0.0,0.27,0.17,0.12,0.07,0.07,0.1,0.07,0.14,0.25,0.25,8.0</t>
   </si>
   <si>
     <t>arg219223</t>
@@ -262,7 +262,7 @@
     <t>plastic water bottles all day every day guys, without those we could comfortabley walk around the block with a safe suply of water in our hands</t>
   </si>
   <si>
-    <t>143,0.0,15.17,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.2,0.15,0.0,0.0</t>
+    <t>26.0,5.5,0.64,0.4,1.6,0.0,15.17,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.08,0.0,0.0,0.08,0.0,0.0,0.0,0.0,11.45</t>
   </si>
   <si>
     <t>arg219289</t>
@@ -271,7 +271,7 @@
     <t>I don't know about you guys but water bottles are so convenient to me. What happens when I'm at the beach on a hot summers day and I'm getting all dehydrated and my only option for water is the ocean that I wouldn't drink from..I have two options, pass out from the heat and lack of water and waste the rest of my day sick/in the hospital..or drink out of a WATER BOTTLEE</t>
   </si>
   <si>
-    <t>371,0.5,11.07,0.0,0.05,2.5,0.0,0.03,0.0,0.15,0.15,0.15,0.0,0.0</t>
+    <t>36.5,5.08,1.81,0.81,2.24,0.5,11.07,0.0,0.05,2.5,0,0,0.0,0.03,1.35,0.25,0.05,0.19,0.03,0.03,0.07,0.03,0.0,0.0,0.0,5.52</t>
   </si>
 </sst>
 </file>
